--- a/data/Analise morfo macro.xlsx
+++ b/data/Analise morfo macro.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t xml:space="preserve">Criptorquida </t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>Idade</t>
-  </si>
-  <si>
-    <t>Comp-LPT</t>
-  </si>
-  <si>
-    <t>Comp-LCEP</t>
   </si>
   <si>
     <t>Comp_Test</t>
@@ -413,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,14 +420,12 @@
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -445,37 +437,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -483,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>8</v>
@@ -498,28 +484,22 @@
         <v>3.8490000000000002</v>
       </c>
       <c r="H2" s="2">
-        <v>1.8</v>
+        <v>22.85</v>
       </c>
       <c r="I2" s="2">
-        <v>0.4</v>
+        <v>50.15</v>
       </c>
       <c r="J2" s="2">
-        <v>22.85</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2">
-        <v>50.15</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -527,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>8</v>
@@ -542,28 +522,22 @@
         <v>2.9729999999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="I3" s="2" t="s">
+        <v>19.27</v>
+      </c>
+      <c r="I3" s="2">
+        <v>48.85</v>
+      </c>
+      <c r="J3" s="2">
         <v>16</v>
       </c>
-      <c r="J3" s="2">
-        <v>19.27</v>
-      </c>
       <c r="K3" s="2">
-        <v>48.85</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2">
-        <v>16</v>
-      </c>
-      <c r="M3" s="2">
-        <v>10</v>
-      </c>
-      <c r="N3" s="2">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -571,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>15</v>
@@ -586,28 +560,22 @@
         <v>5.4390000000000001</v>
       </c>
       <c r="H4" s="2">
-        <v>0.97099999999999997</v>
+        <v>25.79</v>
       </c>
       <c r="I4" s="2">
-        <v>1.1519999999999999</v>
+        <v>156.91999999999999</v>
       </c>
       <c r="J4" s="2">
-        <v>25.79</v>
+        <v>17.5</v>
       </c>
       <c r="K4" s="2">
-        <v>156.91999999999999</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="M4" s="2">
-        <v>10</v>
-      </c>
-      <c r="N4" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -615,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>15</v>
@@ -630,28 +598,22 @@
         <v>5.6959999999999997</v>
       </c>
       <c r="H5" s="2">
-        <v>1.1559999999999999</v>
-      </c>
-      <c r="I5" s="2" t="s">
+        <v>29.05</v>
+      </c>
+      <c r="I5" s="2">
+        <v>183.88</v>
+      </c>
+      <c r="J5" s="2">
         <v>16</v>
       </c>
-      <c r="J5" s="2">
-        <v>29.05</v>
-      </c>
       <c r="K5" s="2">
-        <v>183.88</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2">
-        <v>16</v>
-      </c>
-      <c r="M5" s="2">
-        <v>10</v>
-      </c>
-      <c r="N5" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -659,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>8</v>
@@ -674,28 +636,22 @@
         <v>4.8949999999999996</v>
       </c>
       <c r="H6" s="2">
-        <v>0.84299999999999997</v>
+        <v>22.41</v>
       </c>
       <c r="I6" s="2">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="J6" s="2">
-        <v>22.41</v>
+        <v>138.66</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="K6" s="2">
-        <v>138.66</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="2">
         <v>3</v>
       </c>
-      <c r="N6" s="2">
+      <c r="L6" s="2">
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -703,43 +659,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2">
         <v>87.34</v>
       </c>
+      <c r="I7" s="2">
+        <v>25.36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="K7" s="2">
-        <v>25.36</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="2">
         <v>3</v>
       </c>
-      <c r="N7" s="2">
+      <c r="L7" s="2">
         <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -747,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
@@ -762,28 +712,22 @@
         <v>3.6339999999999999</v>
       </c>
       <c r="H8" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>24.06</v>
+      </c>
+      <c r="I8" s="2">
+        <v>88.85</v>
       </c>
       <c r="J8" s="2">
-        <v>24.06</v>
+        <v>16.5</v>
       </c>
       <c r="K8" s="2">
-        <v>88.85</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="M8" s="2">
-        <v>3</v>
-      </c>
-      <c r="N8" s="2">
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -791,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -806,28 +750,22 @@
         <v>3.8940000000000001</v>
       </c>
       <c r="H9" s="2">
-        <v>1.5</v>
+        <v>27.9</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>86.68</v>
       </c>
       <c r="J9" s="2">
-        <v>27.9</v>
+        <v>13</v>
       </c>
       <c r="K9" s="2">
-        <v>86.68</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2">
-        <v>13</v>
-      </c>
-      <c r="M9" s="2">
-        <v>3</v>
-      </c>
-      <c r="N9" s="2">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -835,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
@@ -850,28 +788,22 @@
         <v>3.7959999999999998</v>
       </c>
       <c r="H10" s="2">
-        <v>2</v>
+        <v>18.07</v>
       </c>
       <c r="I10" s="2">
-        <v>1.6</v>
+        <v>97.67</v>
       </c>
       <c r="J10" s="2">
-        <v>18.07</v>
+        <v>20.7</v>
       </c>
       <c r="K10" s="2">
-        <v>97.67</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2">
-        <v>20.7</v>
-      </c>
-      <c r="M10" s="2">
-        <v>3</v>
-      </c>
-      <c r="N10" s="2">
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -879,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -894,28 +826,22 @@
         <v>4.6340000000000003</v>
       </c>
       <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>16</v>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>106.82</v>
       </c>
       <c r="J11" s="2">
-        <v>17.600000000000001</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2">
-        <v>106.82</v>
+        <v>3</v>
       </c>
       <c r="L11" s="2">
-        <v>20</v>
-      </c>
-      <c r="M11" s="2">
-        <v>3</v>
-      </c>
-      <c r="N11" s="2">
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -923,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
         <v>11.5</v>
@@ -938,28 +864,22 @@
         <v>4.8</v>
       </c>
       <c r="H12" s="2">
-        <v>1.5</v>
+        <v>20.54</v>
       </c>
       <c r="I12" s="2">
-        <v>1.3</v>
+        <v>151.46</v>
       </c>
       <c r="J12" s="2">
-        <v>20.54</v>
+        <v>17</v>
       </c>
       <c r="K12" s="2">
-        <v>151.46</v>
+        <v>4</v>
       </c>
       <c r="L12" s="2">
-        <v>17</v>
-      </c>
-      <c r="M12" s="2">
-        <v>4</v>
-      </c>
-      <c r="N12" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -967,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>11.5</v>
@@ -982,28 +902,22 @@
         <v>5.2</v>
       </c>
       <c r="H13" s="2">
-        <v>3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I13" s="2">
-        <v>1.3</v>
+        <v>150.13999999999999</v>
       </c>
       <c r="J13" s="2">
-        <v>20.100000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="K13" s="2">
-        <v>150.13999999999999</v>
+        <v>4</v>
       </c>
       <c r="L13" s="2">
-        <v>18.2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>4</v>
-      </c>
-      <c r="N13" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -1011,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2">
         <v>14</v>
@@ -1026,28 +940,22 @@
         <v>5</v>
       </c>
       <c r="H14" s="2">
-        <v>2.2999999999999998</v>
+        <v>28.4</v>
       </c>
       <c r="I14" s="2">
-        <v>1.7</v>
+        <v>163.35</v>
       </c>
       <c r="J14" s="2">
-        <v>28.4</v>
+        <v>16.8</v>
       </c>
       <c r="K14" s="2">
-        <v>163.35</v>
+        <v>7</v>
       </c>
       <c r="L14" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="M14" s="2">
-        <v>7</v>
-      </c>
-      <c r="N14" s="2">
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7</v>
       </c>
@@ -1055,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
         <v>14</v>
@@ -1070,28 +978,22 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="H15" s="2">
-        <v>3</v>
+        <v>28.61</v>
       </c>
       <c r="I15" s="2">
-        <v>2</v>
+        <v>179.11</v>
       </c>
       <c r="J15" s="2">
-        <v>28.61</v>
+        <v>17.5</v>
       </c>
       <c r="K15" s="2">
-        <v>179.11</v>
+        <v>7</v>
       </c>
       <c r="L15" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="M15" s="2">
-        <v>7</v>
-      </c>
-      <c r="N15" s="2">
         <v>415</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -1099,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -1113,29 +1015,23 @@
       <c r="G16" s="2">
         <v>3.5</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>16</v>
+      <c r="H16" s="2">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="I16" s="2">
+        <v>25.58</v>
       </c>
       <c r="J16" s="2">
-        <v>18.920000000000002</v>
+        <v>24</v>
       </c>
       <c r="K16" s="2">
-        <v>25.58</v>
+        <v>11</v>
       </c>
       <c r="L16" s="2">
-        <v>24</v>
-      </c>
-      <c r="M16" s="2">
-        <v>11</v>
-      </c>
-      <c r="N16" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -1143,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2">
         <v>9</v>
@@ -1158,28 +1054,22 @@
         <v>7.3</v>
       </c>
       <c r="H17" s="2">
-        <v>2</v>
+        <v>30.12</v>
       </c>
       <c r="I17" s="2">
-        <v>1.7</v>
+        <v>238.15</v>
       </c>
       <c r="J17" s="2">
-        <v>30.12</v>
+        <v>16.7</v>
       </c>
       <c r="K17" s="2">
-        <v>238.15</v>
+        <v>11</v>
       </c>
       <c r="L17" s="2">
-        <v>16.7</v>
-      </c>
-      <c r="M17" s="2">
-        <v>11</v>
-      </c>
-      <c r="N17" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -1187,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
         <v>11</v>
@@ -1202,28 +1092,22 @@
         <v>5.3</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>21.87</v>
       </c>
       <c r="I18" s="2">
-        <v>0.8</v>
+        <v>125.38</v>
       </c>
       <c r="J18" s="2">
-        <v>21.87</v>
+        <v>8.5</v>
       </c>
       <c r="K18" s="2">
-        <v>125.38</v>
+        <v>4</v>
       </c>
       <c r="L18" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="M18" s="2">
-        <v>4</v>
-      </c>
-      <c r="N18" s="2">
         <v>405</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>9</v>
       </c>
@@ -1231,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2">
         <v>11</v>
@@ -1246,28 +1130,22 @@
         <v>6</v>
       </c>
       <c r="H19" s="2">
-        <v>0.9</v>
+        <v>20.83</v>
       </c>
       <c r="I19" s="2">
-        <v>0.8</v>
+        <v>132.43</v>
       </c>
       <c r="J19" s="2">
-        <v>20.83</v>
+        <v>7.8</v>
       </c>
       <c r="K19" s="2">
-        <v>132.43</v>
+        <v>4</v>
       </c>
       <c r="L19" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="M19" s="2">
-        <v>4</v>
-      </c>
-      <c r="N19" s="2">
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -1275,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
         <v>14</v>
@@ -1290,28 +1168,22 @@
         <v>7.3</v>
       </c>
       <c r="H20" s="2">
-        <v>1.4</v>
+        <v>29.83</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>159.02000000000001</v>
       </c>
       <c r="J20" s="2">
-        <v>29.83</v>
+        <v>17</v>
       </c>
       <c r="K20" s="2">
-        <v>159.02000000000001</v>
+        <v>9</v>
       </c>
       <c r="L20" s="2">
-        <v>17</v>
-      </c>
-      <c r="M20" s="2">
-        <v>9</v>
-      </c>
-      <c r="N20" s="2">
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -1319,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2">
         <v>14</v>
@@ -1334,28 +1206,22 @@
         <v>7</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>31.12</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>162.52000000000001</v>
       </c>
       <c r="J21" s="2">
-        <v>31.12</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K21" s="2">
-        <v>162.52000000000001</v>
+        <v>9</v>
       </c>
       <c r="L21" s="2">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="M21" s="2">
-        <v>9</v>
-      </c>
-      <c r="N21" s="2">
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -1363,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2">
         <v>13</v>
@@ -1378,28 +1244,22 @@
         <v>6.9</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>29.61</v>
       </c>
       <c r="I22" s="2">
-        <v>0.8</v>
+        <v>168.4</v>
       </c>
       <c r="J22" s="2">
-        <v>29.61</v>
+        <v>18</v>
       </c>
       <c r="K22" s="2">
-        <v>168.4</v>
+        <v>8</v>
       </c>
       <c r="L22" s="2">
-        <v>18</v>
-      </c>
-      <c r="M22" s="2">
-        <v>8</v>
-      </c>
-      <c r="N22" s="2">
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -1407,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2">
         <v>13</v>
@@ -1422,28 +1282,22 @@
         <v>6.8</v>
       </c>
       <c r="H23" s="2">
-        <v>0.9</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="I23" s="2">
-        <v>0.7</v>
+        <v>185.75</v>
       </c>
       <c r="J23" s="2">
-        <v>34.090000000000003</v>
+        <v>17</v>
       </c>
       <c r="K23" s="2">
-        <v>185.75</v>
+        <v>8</v>
       </c>
       <c r="L23" s="2">
-        <v>17</v>
-      </c>
-      <c r="M23" s="2">
-        <v>8</v>
-      </c>
-      <c r="N23" s="2">
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -1451,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2">
         <v>7</v>
@@ -1466,28 +1320,22 @@
         <v>4</v>
       </c>
       <c r="H24" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>16</v>
+        <v>12.27</v>
+      </c>
+      <c r="I24" s="2">
+        <v>43.22</v>
       </c>
       <c r="J24" s="2">
-        <v>12.27</v>
-      </c>
-      <c r="K24" s="2">
-        <v>43.22</v>
-      </c>
-      <c r="L24" s="2">
         <v>15.4</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>12</v>
       </c>
@@ -1495,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2">
         <v>7</v>
@@ -1510,28 +1358,22 @@
         <v>3.8</v>
       </c>
       <c r="H25" s="2">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>16</v>
+        <v>11.27</v>
+      </c>
+      <c r="I25" s="2">
+        <v>37.65</v>
       </c>
       <c r="J25" s="2">
-        <v>11.27</v>
-      </c>
-      <c r="K25" s="2">
-        <v>37.65</v>
-      </c>
-      <c r="L25" s="2">
-        <v>13</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>13</v>
       </c>
@@ -1539,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2">
         <v>12</v>
@@ -1554,28 +1396,22 @@
         <v>5.3</v>
       </c>
       <c r="H26" s="2">
-        <v>1.6</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="I26" s="2">
-        <v>1.1000000000000001</v>
+        <v>142.21</v>
       </c>
       <c r="J26" s="2">
-        <v>37.159999999999997</v>
+        <v>17</v>
       </c>
       <c r="K26" s="2">
-        <v>142.21</v>
+        <v>4</v>
       </c>
       <c r="L26" s="2">
-        <v>17</v>
-      </c>
-      <c r="M26" s="2">
-        <v>4</v>
-      </c>
-      <c r="N26" s="2">
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>13</v>
       </c>
@@ -1583,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2">
         <v>12</v>
@@ -1598,28 +1434,22 @@
         <v>5.9</v>
       </c>
       <c r="H27" s="2">
-        <v>1.7</v>
+        <v>31.58</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>128.57</v>
       </c>
       <c r="J27" s="2">
-        <v>31.58</v>
+        <v>17</v>
       </c>
       <c r="K27" s="2">
-        <v>128.57</v>
+        <v>4</v>
       </c>
       <c r="L27" s="2">
-        <v>17</v>
-      </c>
-      <c r="M27" s="2">
-        <v>4</v>
-      </c>
-      <c r="N27" s="2">
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>14</v>
       </c>
@@ -1627,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2">
         <v>8.5</v>
@@ -1642,28 +1472,22 @@
         <v>7</v>
       </c>
       <c r="H28" s="2">
-        <v>2.7</v>
+        <v>39.78</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>231.51</v>
       </c>
       <c r="J28" s="2">
-        <v>39.78</v>
+        <v>19</v>
       </c>
       <c r="K28" s="2">
-        <v>231.51</v>
+        <v>4</v>
       </c>
       <c r="L28" s="2">
-        <v>19</v>
-      </c>
-      <c r="M28" s="2">
-        <v>4</v>
-      </c>
-      <c r="N28" s="2">
         <v>495</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>14</v>
       </c>
@@ -1671,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -1685,29 +1509,23 @@
       <c r="G29" s="2">
         <v>3.8</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>16</v>
+      <c r="H29" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>35.28</v>
       </c>
       <c r="J29" s="2">
-        <v>10.119999999999999</v>
+        <v>14</v>
       </c>
       <c r="K29" s="2">
-        <v>35.28</v>
+        <v>4</v>
       </c>
       <c r="L29" s="2">
-        <v>14</v>
-      </c>
-      <c r="M29" s="2">
-        <v>4</v>
-      </c>
-      <c r="N29" s="2">
         <v>495</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>15</v>
       </c>
@@ -1715,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2">
         <v>14</v>
@@ -1730,28 +1548,22 @@
         <v>6.8</v>
       </c>
       <c r="H30" s="2">
-        <v>3.9</v>
+        <v>44.16</v>
       </c>
       <c r="I30" s="2">
-        <v>1.2</v>
+        <v>190.12</v>
       </c>
       <c r="J30" s="2">
-        <v>44.16</v>
+        <v>20.8</v>
       </c>
       <c r="K30" s="2">
-        <v>190.12</v>
+        <v>3</v>
       </c>
       <c r="L30" s="2">
-        <v>20.8</v>
-      </c>
-      <c r="M30" s="2">
-        <v>3</v>
-      </c>
-      <c r="N30" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>15</v>
       </c>
@@ -1759,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2">
         <v>14</v>
@@ -1774,28 +1586,22 @@
         <v>7</v>
       </c>
       <c r="H31" s="2">
-        <v>1.6</v>
+        <v>44.87</v>
       </c>
       <c r="I31" s="2">
-        <v>1</v>
+        <v>227.24</v>
       </c>
       <c r="J31" s="2">
-        <v>44.87</v>
+        <v>18.5</v>
       </c>
       <c r="K31" s="2">
-        <v>227.24</v>
+        <v>3</v>
       </c>
       <c r="L31" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="M31" s="2">
-        <v>3</v>
-      </c>
-      <c r="N31" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>16</v>
       </c>
@@ -1803,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2">
         <v>8.5</v>
@@ -1818,28 +1624,22 @@
         <v>5.8</v>
       </c>
       <c r="H32" s="2">
-        <v>2</v>
+        <v>22.96</v>
       </c>
       <c r="I32" s="2">
-        <v>1.2</v>
+        <v>141.79</v>
       </c>
       <c r="J32" s="2">
-        <v>22.96</v>
+        <v>19.5</v>
       </c>
       <c r="K32" s="2">
-        <v>141.79</v>
+        <v>4</v>
       </c>
       <c r="L32" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="M32" s="2">
-        <v>4</v>
-      </c>
-      <c r="N32" s="2">
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>16</v>
       </c>
@@ -1847,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2">
         <v>8.5</v>
@@ -1862,28 +1662,22 @@
         <v>5.6</v>
       </c>
       <c r="H33" s="2">
-        <v>2.4</v>
+        <v>22.55</v>
       </c>
       <c r="I33" s="2">
-        <v>0.7</v>
+        <v>135.57</v>
       </c>
       <c r="J33" s="2">
-        <v>22.55</v>
+        <v>19.8</v>
       </c>
       <c r="K33" s="2">
-        <v>135.57</v>
+        <v>4</v>
       </c>
       <c r="L33" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="M33" s="2">
-        <v>4</v>
-      </c>
-      <c r="N33" s="2">
         <v>438</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>17</v>
       </c>
@@ -1891,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2">
         <v>9</v>
@@ -1906,28 +1700,22 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H34" s="2">
-        <v>1.8</v>
+        <v>20.99</v>
       </c>
       <c r="I34" s="2">
-        <v>0.5</v>
+        <v>95.8</v>
       </c>
       <c r="J34" s="2">
-        <v>20.99</v>
+        <v>17</v>
       </c>
       <c r="K34" s="2">
-        <v>95.8</v>
+        <v>3</v>
       </c>
       <c r="L34" s="2">
-        <v>17</v>
-      </c>
-      <c r="M34" s="2">
-        <v>3</v>
-      </c>
-      <c r="N34" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>17</v>
       </c>
@@ -1935,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2">
         <v>9</v>
@@ -1950,28 +1738,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H35" s="2">
-        <v>2</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="I35" s="2">
-        <v>0.8</v>
+        <v>112.37</v>
       </c>
       <c r="J35" s="2">
-        <v>20.260000000000002</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K35" s="2">
-        <v>112.37</v>
+        <v>3</v>
       </c>
       <c r="L35" s="2">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="M35" s="2">
-        <v>3</v>
-      </c>
-      <c r="N35" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>18</v>
       </c>
@@ -1979,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -1994,28 +1776,22 @@
         <v>3.8</v>
       </c>
       <c r="H36" s="2">
-        <v>0.9</v>
+        <v>14.79</v>
       </c>
       <c r="I36" s="2">
-        <v>0.4</v>
+        <v>36.130000000000003</v>
       </c>
       <c r="J36" s="2">
-        <v>14.79</v>
+        <v>16.5</v>
       </c>
       <c r="K36" s="2">
-        <v>36.130000000000003</v>
+        <v>8</v>
       </c>
       <c r="L36" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="M36" s="2">
-        <v>8</v>
-      </c>
-      <c r="N36" s="2">
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>18</v>
       </c>
@@ -2023,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37" s="2">
         <v>10</v>
@@ -2038,28 +1814,22 @@
         <v>7.1</v>
       </c>
       <c r="H37" s="2">
-        <v>0.9</v>
+        <v>33.03</v>
       </c>
       <c r="I37" s="2">
-        <v>0.7</v>
+        <v>221.81</v>
       </c>
       <c r="J37" s="2">
-        <v>33.03</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K37" s="2">
-        <v>221.81</v>
+        <v>8</v>
       </c>
       <c r="L37" s="2">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="M37" s="2">
-        <v>8</v>
-      </c>
-      <c r="N37" s="2">
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>19</v>
       </c>
@@ -2067,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E38" s="2">
         <v>10.3</v>
@@ -2082,28 +1852,22 @@
         <v>5.6</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>31.38</v>
       </c>
       <c r="I38" s="2">
-        <v>0.9</v>
+        <v>184.87</v>
       </c>
       <c r="J38" s="2">
-        <v>31.38</v>
+        <v>18.3</v>
       </c>
       <c r="K38" s="2">
-        <v>184.87</v>
+        <v>4</v>
       </c>
       <c r="L38" s="2">
-        <v>18.3</v>
-      </c>
-      <c r="M38" s="2">
-        <v>4</v>
-      </c>
-      <c r="N38" s="2">
         <v>495</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>19</v>
       </c>
@@ -2111,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -2125,25 +1889,19 @@
       <c r="G39" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>16</v>
+      <c r="H39" s="2">
+        <v>18.87</v>
+      </c>
+      <c r="I39" s="2">
+        <v>75.86</v>
       </c>
       <c r="J39" s="2">
-        <v>18.87</v>
+        <v>22.7</v>
       </c>
       <c r="K39" s="2">
-        <v>75.86</v>
+        <v>4</v>
       </c>
       <c r="L39" s="2">
-        <v>22.7</v>
-      </c>
-      <c r="M39" s="2">
-        <v>4</v>
-      </c>
-      <c r="N39" s="2">
         <v>495</v>
       </c>
     </row>
